--- a/documentation/OnClass_vs_ASCTBMapper.xlsx
+++ b/documentation/OnClass_vs_ASCTBMapper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Vikrant\Github_Repositories\scRNA-seq-papers-and-analyses\Vikrant_Analyses\OnClass_CT_label_harominzation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Vikrant\Github_Repositories\asctb_ct_label_mapper\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3A5DB-D390-4ADD-A70B-2692A37B9A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45141C6-29FC-4B6D-AA7C-9B483FC90931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,28 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ASCTB_Mapper_Output!$A$1:$F$143</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OnClass_Output!$A$1:$E$143</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="363">
   <si>
     <t>source</t>
   </si>
@@ -44,12 +55,6 @@
     <t>match_score</t>
   </si>
   <si>
-    <t>matched_asct_id</t>
-  </si>
-  <si>
-    <t>matched_asct_label</t>
-  </si>
-  <si>
     <t>CellTypist</t>
   </si>
   <si>
@@ -984,6 +989,147 @@
   </si>
   <si>
     <t>CL:0000359</t>
+  </si>
+  <si>
+    <t>matched_asctb_id</t>
+  </si>
+  <si>
+    <t>matched_asctb_label</t>
+  </si>
+  <si>
+    <t>alveolar mÃ¯â€  ccl3+</t>
+  </si>
+  <si>
+    <t>alveolar mÃ¯â€  mt-positive</t>
+  </si>
+  <si>
+    <t>alveolar mÃ¯â€  proliferating</t>
+  </si>
+  <si>
+    <t>interstitial mÃ¯â€  perivascular</t>
+  </si>
+  <si>
+    <t>monocyte-derived mÃ¯â€ </t>
+  </si>
+  <si>
+    <t>matched_asctb_text_description</t>
+  </si>
+  <si>
+    <t>alveolar type 1 fibroblast alveolar type 1 fibroblast A pulmonary interstitial fibroblast that is part of the alveolus and contains lipid droplets.</t>
+  </si>
+  <si>
+    <t>AT1 type I pneumocyte A type I pneumocyte is a flattened, branched pneumocyte that covers more than 98% of the alveolar surface. This large cell has thin (50-100 nm) cytoplasmic extensions to form the air-blood barrier essential for normal gas exchange.</t>
+  </si>
+  <si>
+    <t>AT2 type II pneumocyte A type II pneumocyte is a pneumocyte that modulates the fluid surrounding the alveolar epithelium by secreting and recycling surfactants. This cell type also contributes to tissue repair and can differentiate after injury into a type I pneumocyte. Thicker than squamous alveolar cells, have a rounded apical surface that projects above the level of surrounding epithelium. The free surface is covered by short microvilli.</t>
+  </si>
+  <si>
+    <t>B cell B cell A lymphocyte of B lineage that is capable of B cell mediated immunity.</t>
+  </si>
+  <si>
+    <t>basal cell basal cell of epithelium of trachea A basal cell that is part of the epithelium of trachea.</t>
+  </si>
+  <si>
+    <t>CD4+ T cell effector memory CD4+ T cell effector memory CD4-positive, alpha-beta memory T cell with the phenotype CCR7-negative, CD127-positive, CD45RA-negative, CD45RO-positive, and CD25-negative.</t>
+  </si>
+  <si>
+    <t>CD8+ T cell effector memory CD8+ T cell effector memory CD8-positive, alpha-beta memory T cell with the phenotype CCR7-negative, CD127-positive, CD45RA-negative, CD45RO-positive, and CD25-negative.</t>
+  </si>
+  <si>
+    <t>classical monocyte classical monocyte A monocyte that responds rapidly to microbial stimuli by secreting cytokines and antimicrobial factors and which is characterized by high expression of CCR2 in both rodents and humans, negative for the lineage markers CD3, CD19, and CD20, and of larger size than non-classical monocytes.</t>
+  </si>
+  <si>
+    <t>chondrocyte tracheobronchial chondrocyte Any chondrocyte that is part of the tracheobronchial tree.</t>
+  </si>
+  <si>
+    <t>club cell club cell of bronchiole Epithelial progenitor cell of the lung. Club cells are dome-shaped with short microvilli but no cilia. They function to protect the bronchiolar epithelium. Club cells also multiply and differentiate into ciliated cells to regenerate the bronchiolar epithelium.</t>
+  </si>
+  <si>
+    <t>cDC2 myeloid dendritic cell myeloid dendritic cell cDC2 A myeloid dendritic cell found in the blood that is CD1c-positive.</t>
+  </si>
+  <si>
+    <t>CAP2 aerocyte capillary gCap capillary endothelial cell 2 An alveolar capillary endothelial cell that is located proximally to alveolar capillary type 1 endothelial cells and in close apposition to alveolar type 1 epithelial cells (also known as type I pneumocytes).</t>
+  </si>
+  <si>
+    <t>arterial endothelial cell arterial endothelial cell A blood vessel endothelial cell that is part of an arterial endothelium.</t>
+  </si>
+  <si>
+    <t>CAP1 general capillary aCap capillary endothelial cell 1 An alveolar capillary endothelial cell that is located distally to alveolar capillary type 2 endothelial cells.</t>
+  </si>
+  <si>
+    <t>pulmonary venous endothelial cell vein endothelial cell An endothelial cell that is part of the vein.</t>
+  </si>
+  <si>
+    <t>venous endothelial cell vein endothelial cell An endothelial cell that is part of the vein.</t>
+  </si>
+  <si>
+    <t>neutrophil neutrophil A leukocyte with abundant granules in the cytoplasm.</t>
+  </si>
+  <si>
+    <t>bronchial goblet cell lung goblet cell NaN</t>
+  </si>
+  <si>
+    <t>pulmonary ionocyte pulmonary ionocyte An ionocyte that is part of the lung epithelium. The cells from this type are major sources of the CFTR protein in human and mice.</t>
+  </si>
+  <si>
+    <t>lymphatic endothelial cell endothelial cell of respiratory system lymphatic vessel An endothelial cell that is part of a respiratory system lymphatic vessel.</t>
+  </si>
+  <si>
+    <t>connective tissue mast cell connective tissue mast cell Mast cell subtype whose granules contain both the serine proteases tryptase and chymase. These cells are primarily found in connective tissue, such as the peritoneal cavity, skin, and intestinal submucosa. Their development is T-cell independent.</t>
+  </si>
+  <si>
+    <t>mesothelial cell mesothelial cell of visceral pleura A mesothelial cell that is part of the visceral pleura.</t>
+  </si>
+  <si>
+    <t>non-classical monocyte non-classical monocyte A type of monocyte characterized by low expression of CCR2, low responsiveness to monocyte chemoattractant CCL2/MCP1, low phagocytic activity, and decrease size relative to classical monocytes, but increased co-stimulatory activity. May also play a role in tissue repair.</t>
+  </si>
+  <si>
+    <t>submucosal gland mucous cells mucus cell of submucosal glands NaN</t>
+  </si>
+  <si>
+    <t>secondary crest myofibroblasts secondary crest myofibroblasts An animal cell that has characteristics of both a fibroblast cell and a smooth muscle cell.</t>
+  </si>
+  <si>
+    <t>neuroendocrine cell lung neuroendocrine cell NaN</t>
+  </si>
+  <si>
+    <t>NK T cell NK T cell A mature alpha-beta T cell of a distinct lineage that bears natural killer markers and a T cell receptor specific for a limited set of ligands. NK T cells have activation and regulatory roles particularly early in an immune response.</t>
+  </si>
+  <si>
+    <t>lung pericyte lung pericyte A pericyte cell that is part of a lung.</t>
+  </si>
+  <si>
+    <t>regulatory T cell regulatory T cell A T cell which regulates overall immune responses as well as the responses of other T cell subsets through direct cell-cell contact and cytokine release.</t>
+  </si>
+  <si>
+    <t>submucosal gland ciliated duct cells ciliated cell of terminal ciliated ducts of submucosal glands NaN</t>
+  </si>
+  <si>
+    <t>vascular smooth muscle cell blood vessel smooth muscle cell A smooth muscle cell that is part of any blood vessel.</t>
+  </si>
+  <si>
+    <t>tuft cell brush cell of trachea Brush cell of the epithelium in the trachea.</t>
+  </si>
+  <si>
+    <t>bronchial smooth muscle cell bronchial smooth muscle cell NaN</t>
+  </si>
+  <si>
+    <t>pulmonary artery endothelial cell pulmonary artery endothelial cell NaN</t>
+  </si>
+  <si>
+    <t>CD8+ T cell naive CD8+ T cell naive A CD8-positive, alpha-beta T cell that has not experienced activation via antigen contact and has the phenotype CD45RA-positive, CCR7-positive and CD127-positive. This cell type is also described as being CD25-negative, CD62L-high and CD44-low.</t>
+  </si>
+  <si>
+    <t>lung ciliated cell lung ciliated cell NaN</t>
+  </si>
+  <si>
+    <t>Interstitial macrophage Interstitial macrophage NaN</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cell plasmacytoid dendritic cell A dendritic cell type of distinct morphology, localization, and surface marker expression (CD123-positive) from other dendritic cell types and associated with early stage immune responses, particularly the release of physiologically abundant amounts of type I interferons in response to infection.</t>
+  </si>
+  <si>
+    <t>vascular smooth muscle blood vessel smooth muscle cell A smooth muscle cell that is part of any blood vessel.</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,9 +1471,10 @@
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,2850 +1488,3279 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0.62599009275436401</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>0.75039058923721302</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4">
         <v>0.93664300441741899</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0.73842024803161599</v>
+        <v>0.79410040378570501</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>0.70229077339172297</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0.73842024803161599</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0.246299654245376</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.23461095988750399</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>0.246299624443054</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0.40604346990585299</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>0.70054060220718295</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0.42304891347885099</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0.71507024765014604</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0.73563671112060502</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>0.584342241287231</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>0.36602896451950001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0.194100812077522</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>0.34511202573776201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>0.29161599278450001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>0.68547290563583296</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>0.60106164216995195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>0.51338005065917902</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23">
+        <v>0.47779631614684998</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>0.71528661251068104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>0.62231624126434304</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26">
+        <v>0.54553574323654097</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>0.79503816366195601</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>0.60206574201583796</v>
+      </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>0.381436496973037</v>
+      </c>
+      <c r="E29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>0.42627587914466802</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>0.561179399490356</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <v>0.47139635682106001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>0.493985176086425</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
+        <v>0.541703701019287</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>0.667164146900177</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <v>0.52519053220748901</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37">
+        <v>0.42760869860649098</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38">
+        <v>0.40612849593162498</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39">
+        <v>0.41497603058815002</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <v>0.25410386919975197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41">
+        <v>0.60528182983398404</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>0.55626463890075595</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>0.64105558395385698</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44">
+        <v>0.65922099351882901</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45">
+        <v>0.82653319835662797</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>0.62505340576171797</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47">
+        <v>0.60411578416824296</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>0.55194407701492298</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49">
+        <v>0.27440658211708002</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>0.34660834074020302</v>
+      </c>
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51">
+        <v>0.56131309270858698</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52">
+        <v>0.565862596035003</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53">
+        <v>0.36462387442588801</v>
+      </c>
+      <c r="E53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54">
+        <v>0.55143457651138295</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>0.650734543800354</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56">
+        <v>0.61010795831680298</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57">
+        <v>0.53245496749877896</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58">
+        <v>0.156530246138572</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59">
+        <v>0.50561487674713101</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>0.62599009275436401</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>0.75039058923721302</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>0.93664300441741899</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>0.73842024803161599</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>0.246299654245376</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>0.23461095988750399</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>0.40604346990585299</v>
+      </c>
+      <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>0.23461097478866499</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F66" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>0.40604344010353</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D67">
+        <v>0.70054060220718295</v>
+      </c>
+      <c r="E67" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F67" t="s">
         <v>31</v>
       </c>
-      <c r="D9">
-        <v>0.70054060220718295</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68">
+        <v>0.42304891347885099</v>
+      </c>
+      <c r="E68" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F68" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>0.42304891347885099</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C69" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D69">
+        <v>0.71507024765014604</v>
+      </c>
+      <c r="E69" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F69" t="s">
         <v>38</v>
       </c>
-      <c r="D11">
-        <v>0.71507024765014604</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C70" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D70">
+        <v>0.73563671112060502</v>
+      </c>
+      <c r="E70" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F70" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
-        <v>0.73563671112060502</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C71" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D71">
+        <v>0.584342241287231</v>
+      </c>
+      <c r="E71" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" t="s">
         <v>46</v>
       </c>
-      <c r="D13">
-        <v>0.584342241287231</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C72" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D72">
+        <v>0.36602896451950001</v>
+      </c>
+      <c r="E72" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F72" t="s">
         <v>49</v>
       </c>
-      <c r="D14">
-        <v>0.36602896451950001</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C73" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D73">
+        <v>0.194100812077522</v>
+      </c>
+      <c r="E73" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F73" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>0.194100812077522</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74">
+        <v>0.29161599278450001</v>
+      </c>
+      <c r="E74" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75">
+        <v>0.68547290563583296</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="G75" t="s">
         <v>59</v>
       </c>
-      <c r="D16">
-        <v>0.29161599278450001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C76" t="s">
         <v>60</v>
       </c>
-      <c r="D17">
-        <v>0.68547290563583296</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D76">
+        <v>0.60106164216995195</v>
+      </c>
+      <c r="E76" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F76" t="s">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18">
-        <v>0.60106164216995195</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G76" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77">
+        <v>0.51338005065917902</v>
+      </c>
+      <c r="E77" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F77" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19">
-        <v>0.51338005065917902</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
         <v>66</v>
       </c>
-      <c r="F19" t="s">
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78">
+        <v>0.47779631614684998</v>
+      </c>
+      <c r="E78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F78" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20">
-        <v>0.47779631614684998</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G78" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79">
+        <v>0.71528661251068104</v>
+      </c>
+      <c r="E79" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F79" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21">
-        <v>0.71528661251068104</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G79" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80">
+        <v>0.62231624126434304</v>
+      </c>
+      <c r="E80" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22">
-        <v>0.62231624126434304</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23">
+      <c r="G80" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81">
         <v>0.60206574201583796</v>
       </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <v>0.42627587914466802</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83">
+        <v>0.561179399490356</v>
+      </c>
+      <c r="E83" t="s">
         <v>87</v>
       </c>
-      <c r="D24">
-        <v>0.42627587914466802</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F83" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25">
-        <v>0.561179399490356</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G83" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
         <v>89</v>
       </c>
-      <c r="F25" t="s">
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84">
+        <v>0.47139635682106001</v>
+      </c>
+      <c r="E84" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F84" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
+      <c r="G84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85">
+        <v>0.493985176086425</v>
+      </c>
+      <c r="E85" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" t="s">
         <v>91</v>
       </c>
-      <c r="D26">
-        <v>0.47139635682106001</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="G85" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
         <v>94</v>
       </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27">
-        <v>0.493985176086425</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86">
+        <v>0.667164146900177</v>
+      </c>
+      <c r="E86" t="s">
         <v>96</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F86" t="s">
         <v>97</v>
       </c>
-      <c r="D28">
-        <v>0.667164146900177</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="G86" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87">
+        <v>0.40612849593162498</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
         <v>106</v>
       </c>
-      <c r="D29">
-        <v>0.40612849593162498</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G87" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
         <v>107</v>
       </c>
-      <c r="F29" t="s">
+      <c r="C88" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D88">
+        <v>0.41497603058815002</v>
+      </c>
+      <c r="E88" t="s">
         <v>109</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F88" t="s">
         <v>110</v>
       </c>
-      <c r="D30">
-        <v>0.41497603058815002</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G88" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" t="s">
         <v>111</v>
       </c>
-      <c r="F30" t="s">
+      <c r="C89" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D89">
+        <v>0.25410386919975197</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>113</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
         <v>114</v>
       </c>
-      <c r="D31">
-        <v>0.25410386919975197</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="C90" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90">
+        <v>0.60528182983398404</v>
+      </c>
+      <c r="E90" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="F90" t="s">
         <v>116</v>
       </c>
-      <c r="C32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32">
-        <v>0.60528182983398404</v>
-      </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="G90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91">
+        <v>0.64105558395385698</v>
+      </c>
+      <c r="E91" t="s">
         <v>122</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F91" t="s">
         <v>123</v>
       </c>
-      <c r="D33">
-        <v>0.64105558395385698</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G91" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" t="s">
         <v>124</v>
       </c>
-      <c r="F33" t="s">
+      <c r="C92" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D92">
+        <v>0.65922099351882901</v>
+      </c>
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>106</v>
+      </c>
+      <c r="G92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C93" t="s">
         <v>127</v>
       </c>
-      <c r="D34">
-        <v>0.65922099351882901</v>
-      </c>
-      <c r="E34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D93">
+        <v>0.82653319835662797</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
         <v>128</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D94">
+        <v>0.62505340576171797</v>
+      </c>
+      <c r="E94" t="s">
         <v>129</v>
       </c>
-      <c r="D35">
-        <v>0.82653319835662797</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="F94" t="s">
         <v>130</v>
       </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36">
-        <v>0.62505340576171797</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" t="s">
         <v>131</v>
       </c>
-      <c r="F36" t="s">
+      <c r="C95" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D95">
+        <v>0.60411578416824296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
+        <v>113</v>
+      </c>
+      <c r="G95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C96" t="s">
         <v>134</v>
       </c>
-      <c r="D37">
-        <v>0.60411578416824296</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D96">
+        <v>0.55194407701492298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97">
+        <v>0.27440658211708002</v>
+      </c>
+      <c r="E97" t="s">
         <v>136</v>
       </c>
-      <c r="D38">
-        <v>0.55194407701492298</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F97" t="s">
         <v>137</v>
       </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39">
-        <v>0.27440658211708002</v>
-      </c>
-      <c r="E39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40">
+      <c r="G97" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98">
         <v>0.56131309270858698</v>
       </c>
-      <c r="E40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" t="s">
+        <v>110</v>
+      </c>
+      <c r="G98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99">
+        <v>0.55143457651138295</v>
+      </c>
+      <c r="E99" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" t="s">
         <v>148</v>
       </c>
-      <c r="C41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41">
-        <v>0.55143457651138295</v>
-      </c>
-      <c r="E41" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42">
-        <v>0.61010795831680298</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43">
-        <v>0.53245496749877896</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44">
-        <v>0.156530246138572</v>
-      </c>
-      <c r="E44" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45">
-        <v>0.50561487674713101</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46">
-        <v>0.62599009275436401</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <v>0.75039058923721302</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48">
-        <v>0.79410040378570501</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>0.70229077339172297</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>0.73842024803161599</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51">
-        <v>0.93664300441741899</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52">
-        <v>0.246299624443054</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53">
-        <v>0.23461097478866499</v>
-      </c>
-      <c r="E53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54">
-        <v>0.40604344010353</v>
-      </c>
-      <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>0.70054060220718295</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56">
-        <v>0.42304891347885099</v>
-      </c>
-      <c r="E56" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57">
-        <v>0.71507024765014604</v>
-      </c>
-      <c r="E57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58">
-        <v>0.73563671112060502</v>
-      </c>
-      <c r="E58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59">
-        <v>0.584342241287231</v>
-      </c>
-      <c r="E59" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60">
-        <v>0.36602896451950001</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61">
-        <v>0.194100812077522</v>
-      </c>
-      <c r="E61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62">
-        <v>0.34511202573776201</v>
-      </c>
-      <c r="E62" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63">
-        <v>0.29161599278450001</v>
-      </c>
-      <c r="E63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64">
-        <v>0.68547290563583296</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65">
-        <v>0.60106164216995195</v>
-      </c>
-      <c r="E65" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <v>0.51338005065917902</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67">
-        <v>0.47779631614684998</v>
-      </c>
-      <c r="E67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68">
-        <v>0.71528661251068104</v>
-      </c>
-      <c r="E68" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69">
-        <v>0.62231624126434304</v>
-      </c>
-      <c r="E69" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70">
-        <v>0.54553574323654097</v>
-      </c>
-      <c r="E70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71">
-        <v>0.79503816366195601</v>
-      </c>
-      <c r="E71" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72">
-        <v>0.60206574201583796</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73">
-        <v>0.381436496973037</v>
-      </c>
-      <c r="E73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74">
-        <v>0.42627587914466802</v>
-      </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75">
-        <v>0.561179399490356</v>
-      </c>
-      <c r="E75" t="s">
-        <v>89</v>
-      </c>
-      <c r="F75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76">
-        <v>0.47139635682106001</v>
-      </c>
-      <c r="E76" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77">
-        <v>0.493985176086425</v>
-      </c>
-      <c r="E77" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78">
-        <v>0.541703701019287</v>
-      </c>
-      <c r="E78" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79">
-        <v>0.667164146900177</v>
-      </c>
-      <c r="E79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80">
-        <v>0.52519053220748901</v>
-      </c>
-      <c r="E80" t="s">
-        <v>101</v>
-      </c>
-      <c r="F80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D81">
-        <v>0.42760869860649098</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82">
-        <v>0.40612849593162498</v>
-      </c>
-      <c r="E82" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83">
-        <v>0.41497603058815002</v>
-      </c>
-      <c r="E83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84">
-        <v>0.25410386919975197</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85">
-        <v>0.60528182983398404</v>
-      </c>
-      <c r="E85" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86">
-        <v>0.55626463890075595</v>
-      </c>
-      <c r="E86" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87">
-        <v>0.64105558395385698</v>
-      </c>
-      <c r="E87" t="s">
-        <v>124</v>
-      </c>
-      <c r="F87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88">
-        <v>0.65922099351882901</v>
-      </c>
-      <c r="E88" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89">
-        <v>0.82653319835662797</v>
-      </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90">
-        <v>0.62505340576171797</v>
-      </c>
-      <c r="E90" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D91">
-        <v>0.60411578416824296</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92">
-        <v>0.55194407701492298</v>
-      </c>
-      <c r="E92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D93">
-        <v>0.27440658211708002</v>
-      </c>
-      <c r="E93" t="s">
-        <v>138</v>
-      </c>
-      <c r="F93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94">
-        <v>0.34660834074020302</v>
-      </c>
-      <c r="E94" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>143</v>
-      </c>
-      <c r="C95" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95">
-        <v>0.56131309270858698</v>
-      </c>
-      <c r="E95" t="s">
-        <v>111</v>
-      </c>
-      <c r="F95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96">
-        <v>0.565862596035003</v>
-      </c>
-      <c r="E96" t="s">
-        <v>81</v>
-      </c>
-      <c r="F96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" t="s">
-        <v>146</v>
-      </c>
-      <c r="C97" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97">
-        <v>0.36462387442588801</v>
-      </c>
-      <c r="E97" t="s">
-        <v>81</v>
-      </c>
-      <c r="F97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" t="s">
-        <v>148</v>
-      </c>
-      <c r="D98">
-        <v>0.55143457651138295</v>
-      </c>
-      <c r="E98" t="s">
-        <v>149</v>
-      </c>
-      <c r="F98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="G99" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100" t="s">
         <v>151</v>
       </c>
-      <c r="C99" t="s">
-        <v>152</v>
-      </c>
-      <c r="D99">
-        <v>0.650734543800354</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100">
         <v>0.61010795831680298</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D101">
         <v>0.53245496749877896</v>
       </c>
       <c r="E101" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="G101" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C102" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D102">
         <v>0.156530246138572</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="G102" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D103">
         <v>0.50561487674713101</v>
       </c>
       <c r="E103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F103" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G103" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104">
         <v>0.70015400648116999</v>
       </c>
       <c r="E104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>0.75039058923721302</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D106">
         <v>0.70054060220718295</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G106" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D107">
         <v>0.68117487430572499</v>
       </c>
       <c r="E107" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
         <v>162</v>
       </c>
-      <c r="B108" t="s">
-        <v>164</v>
-      </c>
       <c r="C108" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108">
         <v>0.35308867692947299</v>
       </c>
       <c r="E108" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D109">
         <v>0.99999988079071001</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F109" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" t="s">
-        <v>167</v>
-      </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D110">
         <v>0.85369217395782404</v>
       </c>
       <c r="E110" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" t="s">
         <v>168</v>
       </c>
-      <c r="F110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" t="s">
-        <v>170</v>
-      </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111">
         <v>0.66409432888030995</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G111" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D112">
         <v>0.70843315124511697</v>
       </c>
       <c r="E112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="G112" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113">
         <v>0.80205553770065297</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D114">
         <v>0.80205553770065297</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115">
         <v>0.84506022930145197</v>
       </c>
       <c r="E115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" t="s">
         <v>177</v>
       </c>
-      <c r="F115" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>162</v>
-      </c>
-      <c r="B116" t="s">
-        <v>179</v>
-      </c>
       <c r="C116" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D116">
         <v>0.84506022930145197</v>
       </c>
       <c r="E116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="G116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D117">
         <v>0.584342241287231</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G117" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D118">
         <v>0.40984356403350802</v>
       </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119">
         <v>0.75641280412673895</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="G119" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C120" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D120">
         <v>0.85489141941070501</v>
       </c>
       <c r="E120" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="G120" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D121">
         <v>0.78535532951354903</v>
       </c>
       <c r="E121" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F121" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="G121" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D122">
         <v>0.65091538429260198</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>0.57322680950164795</v>
       </c>
       <c r="E123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="G123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F124" t="s">
+        <v>183</v>
+      </c>
+      <c r="G124" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>162</v>
-      </c>
-      <c r="B125" t="s">
-        <v>187</v>
-      </c>
       <c r="C125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D125">
         <v>0.86547529697418202</v>
       </c>
       <c r="E125" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="G125" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D126">
         <v>0.83245366811752297</v>
       </c>
       <c r="E126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F126" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="G126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D127">
         <v>0.74469226598739602</v>
       </c>
       <c r="E127" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="G127" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D128">
         <v>0.68815022706985396</v>
       </c>
       <c r="E128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F128" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G128" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D129">
         <v>0.74551510810851995</v>
       </c>
       <c r="E129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F129" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G129" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D130">
         <v>0.64105558395385698</v>
       </c>
       <c r="E130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F130" t="s">
+        <v>123</v>
+      </c>
+      <c r="G130" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>162</v>
-      </c>
-      <c r="B131" t="s">
-        <v>108</v>
-      </c>
-      <c r="C131" t="s">
-        <v>127</v>
       </c>
       <c r="D131">
         <v>0.65922099351882901</v>
       </c>
       <c r="E131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="G131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D132">
         <v>0.79388105869293202</v>
       </c>
       <c r="E132" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" t="s">
-        <v>134</v>
-      </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133">
         <v>0.60411578416824296</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="G133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D134">
         <v>0.78915596008300704</v>
       </c>
       <c r="E134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="G134" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D135">
         <v>0.76273167133331299</v>
       </c>
       <c r="E135" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F135" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D136">
         <v>0.82588678598403897</v>
       </c>
       <c r="E136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F136" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G136" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B137" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D137">
         <v>0.81008869409561102</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="G137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D138">
         <v>0.777618467807769</v>
       </c>
       <c r="E138" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C139" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D139">
         <v>0.77099484205245905</v>
       </c>
       <c r="E139" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="s">
+        <v>199</v>
+      </c>
+      <c r="D140">
+        <v>0.62777262926101596</v>
+      </c>
+      <c r="E140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" t="s">
+        <v>200</v>
+      </c>
+      <c r="D141">
+        <v>0.59741616249084395</v>
+      </c>
+      <c r="E141" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" t="s">
         <v>201</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C142" t="s">
         <v>201</v>
-      </c>
-      <c r="D140">
-        <v>0.62777251005172696</v>
-      </c>
-      <c r="E140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" t="s">
-        <v>202</v>
-      </c>
-      <c r="C141" t="s">
-        <v>202</v>
-      </c>
-      <c r="D141">
-        <v>0.59741610288619995</v>
-      </c>
-      <c r="E141" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" t="s">
-        <v>203</v>
-      </c>
-      <c r="C142" t="s">
-        <v>203</v>
       </c>
       <c r="D142">
         <v>0.86672967672348</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F142" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="G142" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D143">
         <v>0.85175335407257002</v>
       </c>
       <c r="E143" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F143" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="G143" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4218,2424 +4794,2424 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
